--- a/charts.xlsx
+++ b/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umanagementru-my.sharepoint.com/personal/az_umanagement_ru/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_52EA34D87E03C3D9F36E9E9CDF7F313EF66FBB18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C94D25AB-BA62-2A4C-96B3-B0BDE0DF0940}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_52EA34D87E03C3D9F36E9E9CDF7F313EF66FBB18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B139879-0FD4-2842-8725-20447AA938AD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20680" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26328,7 +26328,7 @@
     <t>50, Benedixhion, toxin</t>
   </si>
   <si>
-    <t>50, Алла Пугачева, Тест для аппликейшн</t>
+    <t>50, Алла Пугачева, Тест для аппликейшн Update 16:31</t>
   </si>
 </sst>
 </file>
@@ -70628,7 +70628,7 @@
   <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B30" zoomScale="200" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
